--- a/NivelIntermedio/Funciones de Busqueda y Referencia -.xlsx
+++ b/NivelIntermedio/Funciones de Busqueda y Referencia -.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28117"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29622"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F678270E-4F3B-4E14-9631-58957459760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7661634B-DA96-4335-BEAC-01C4EC13FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E1FA2E-282D-481E-B826-58CB0DAC00DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{03E1FA2E-282D-481E-B826-58CB0DAC00DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduccion" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PIVOTARPOR!$A$4:$F$29</definedName>
     <definedName name="Empleados">BUSCARV!$H$28:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,151 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
-  <si>
-    <t>=BUSCARV(valor_buscado;matriz_tabla;indicador_columnas;rango)</t>
-  </si>
-  <si>
-    <t>valor_buscado</t>
-  </si>
-  <si>
-    <t>Texto</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>matriz_tabla</t>
-  </si>
-  <si>
-    <t>Rango Celdas</t>
-  </si>
-  <si>
-    <t>Tabla</t>
-  </si>
-  <si>
-    <t>indicador_columnas</t>
-  </si>
-  <si>
-    <t>Valor Numerico</t>
-  </si>
-  <si>
-    <t>rango</t>
-  </si>
-  <si>
-    <t>aproximada</t>
-  </si>
-  <si>
-    <t>exacta</t>
-  </si>
-  <si>
-    <t>BUSQUEDA TEXTO</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Mediano</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>Jumbo</t>
-  </si>
-  <si>
-    <t>Espresso</t>
-  </si>
-  <si>
-    <t>Latte</t>
-  </si>
-  <si>
-    <t>Cappuccino</t>
-  </si>
-  <si>
-    <t>Americano</t>
-  </si>
-  <si>
-    <t>Mocha</t>
-  </si>
-  <si>
-    <t>Macchiato</t>
-  </si>
-  <si>
-    <t>Flat White</t>
-  </si>
-  <si>
-    <t>Frappuccino</t>
-  </si>
-  <si>
-    <t>Cortado</t>
-  </si>
-  <si>
-    <t>Café con Leche</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>ID Empleado</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Juan Pérez</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>María López</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Carlos Ruiz</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Ana Gómez</t>
-  </si>
-  <si>
-    <t>RRHH</t>
-  </si>
-  <si>
-    <t>Luis Torres</t>
-  </si>
-  <si>
-    <t>Finanzas</t>
-  </si>
-  <si>
-    <t>BUSQUEDA NUMERO</t>
-  </si>
-  <si>
-    <t>Venta</t>
-  </si>
-  <si>
-    <t>Comision</t>
-  </si>
-  <si>
-    <t>% Comision</t>
-  </si>
-  <si>
-    <t>% Comsion</t>
-  </si>
-  <si>
-    <t>Sueldo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="139">
   <si>
     <t>FUNCIONES DE BUSQUEDA Y REFERENCIA</t>
   </si>
@@ -271,16 +127,121 @@
     </r>
   </si>
   <si>
+    <t>=BUSCARV(valor_buscado;matriz_tabla;indicador_columnas;rango)</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>valor_buscado</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Rango Celdas</t>
+  </si>
+  <si>
+    <t>matriz_tabla</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>indicador_columnas</t>
+  </si>
+  <si>
+    <t>Valor Numerico</t>
+  </si>
+  <si>
+    <t>aproximada</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>exacta</t>
+  </si>
+  <si>
+    <t>BUSQUEDA TEXTO</t>
+  </si>
+  <si>
     <t>ID Venta</t>
   </si>
   <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Precio Tabla</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Mediano</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
     <t>Tamaño</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Precio Tabla</t>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>Latte</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>Mocha</t>
+  </si>
+  <si>
+    <t>Macchiato</t>
+  </si>
+  <si>
+    <t>Flat White</t>
+  </si>
+  <si>
+    <t>Frappuccino</t>
+  </si>
+  <si>
+    <t>Cortado</t>
+  </si>
+  <si>
+    <t>Café con Leche</t>
+  </si>
+  <si>
+    <t>BUSQUEDA NUMERO</t>
+  </si>
+  <si>
+    <t>ID Empleado</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Venta</t>
   </si>
   <si>
     <t>Inicio</t>
@@ -289,12 +250,54 @@
     <t>Final</t>
   </si>
   <si>
+    <t>% Comsion</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>% Comision</t>
+  </si>
+  <si>
+    <t>María López</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Comision</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Ana Gómez</t>
+  </si>
+  <si>
+    <t>RRHH</t>
+  </si>
+  <si>
+    <t>Luis Torres</t>
+  </si>
+  <si>
+    <t>Finanzas</t>
+  </si>
+  <si>
+    <t>=BUSCARH(valor_buscado;matriz_buscar_en;indicador_filas;ordenado)</t>
+  </si>
+  <si>
+    <t>EMP002</t>
+  </si>
+  <si>
     <t>EMP001</t>
   </si>
   <si>
-    <t>EMP002</t>
-  </si>
-  <si>
     <t>EMP003</t>
   </si>
   <si>
@@ -310,12 +313,21 @@
     <t>Fecha Ingreso</t>
   </si>
   <si>
-    <t>=BUSCARH(valor_buscado;matriz_buscar_en;indicador_filas;ordenado)</t>
-  </si>
-  <si>
     <t>=BUSCARX(valor_buscado;matriz_buscada;matriz_devuelta;si_no_se_encuentra;modo_de_coincidencia;modo_de_búsqueda)</t>
   </si>
   <si>
+    <t>Producto2</t>
+  </si>
+  <si>
+    <t>=COINCIDIR(valor_buscado;matriz_buscada;tipo_de_coincidencia)</t>
+  </si>
+  <si>
+    <t>=INDICE(matriz;núm_fila;núm_columna)</t>
+  </si>
+  <si>
+    <t>=AGRUPARPOR(row_fields;values;function;field_headers;total_depth;sort_order;filter_array;field_relationship)</t>
+  </si>
+  <si>
     <t>Talla</t>
   </si>
   <si>
@@ -325,75 +337,171 @@
     <t>Fecha de Venta</t>
   </si>
   <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Pantalón</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Blusa</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>Negro</t>
   </si>
   <si>
-    <t>Blusa</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Azul</t>
+    <t>Chaqueta</t>
+  </si>
+  <si>
+    <t>Gris</t>
   </si>
   <si>
     <t>Falda</t>
   </si>
   <si>
-    <t>Verde</t>
+    <t>Sudadera</t>
   </si>
   <si>
     <t>Vestido</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>Camiseta</t>
-  </si>
-  <si>
-    <t>Rojo</t>
-  </si>
-  <si>
-    <t>Sudadera</t>
-  </si>
-  <si>
-    <t>Gris</t>
-  </si>
-  <si>
-    <t>Amarillo</t>
-  </si>
-  <si>
-    <t>Pantalón</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t>Chaqueta</t>
-  </si>
-  <si>
-    <t>=AGRUPARPOR(row_fields;values;function;field_headers;total_depth;sort_order;filter_array;field_relationship)</t>
-  </si>
-  <si>
     <t>=PIVOTARPOR(row_fields;col_fields;values;function;field_headers;row_total_depth;row_sort_order;col_total_depth;col_sort_order;filter_array;relative_to)</t>
   </si>
   <si>
+    <t>=APILARV(matriz1;matriz2;...)</t>
+  </si>
+  <si>
+    <t>Total Ventas</t>
+  </si>
+  <si>
+    <t>Televisor</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Consola de Videojuegos</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Audífonos</t>
+  </si>
+  <si>
+    <t>Parlante Bluetooth</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Cámara Web</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>Automovil</t>
+  </si>
+  <si>
+    <t>=APILARH(matriz1;matriz2;...)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Ventas Ene-Jun</t>
+  </si>
+  <si>
+    <t>Ventas Jul-Dic</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>Plátano</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>Fresa</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Sandia</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>=TRANSPONER(matriz)</t>
+  </si>
+  <si>
     <t>Mes</t>
   </si>
   <si>
+    <t>Producto A</t>
+  </si>
+  <si>
+    <t>Producto B</t>
+  </si>
+  <si>
+    <t>Producto C</t>
+  </si>
+  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -428,122 +536,18 @@
   </si>
   <si>
     <t>Diciembre</t>
-  </si>
-  <si>
-    <t>Producto A</t>
-  </si>
-  <si>
-    <t>Producto B</t>
-  </si>
-  <si>
-    <t>Producto C</t>
-  </si>
-  <si>
-    <t>=TRANSPONER(matriz)</t>
-  </si>
-  <si>
-    <t>Total Ventas</t>
-  </si>
-  <si>
-    <t>Televisor</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Audífonos</t>
-  </si>
-  <si>
-    <t>Teclado</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Impresora</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Cámara Web</t>
-  </si>
-  <si>
-    <t>Consola de Videojuegos</t>
-  </si>
-  <si>
-    <t>Parlante Bluetooth</t>
-  </si>
-  <si>
-    <t>=APILARV(matriz1;matriz2;...)</t>
-  </si>
-  <si>
-    <t>=APILARH(matriz1;matriz2;...)</t>
-  </si>
-  <si>
-    <t>Automovil</t>
-  </si>
-  <si>
-    <t>Producto2</t>
-  </si>
-  <si>
-    <t>=COINCIDIR(valor_buscado;matriz_buscada;tipo_de_coincidencia)</t>
-  </si>
-  <si>
-    <t>=INDICE(matriz;núm_fila;núm_columna)</t>
-  </si>
-  <si>
-    <t>Ventas Ene-Jun</t>
-  </si>
-  <si>
-    <t>Manzana</t>
-  </si>
-  <si>
-    <t>Plátano</t>
-  </si>
-  <si>
-    <t>Naranja</t>
-  </si>
-  <si>
-    <t>Fresa</t>
-  </si>
-  <si>
-    <t>Piña</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Ventas Jul-Dic</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>Limon</t>
-  </si>
-  <si>
-    <t>Sandia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;S/&quot;\ #,##0.00;[Red]\-&quot;S/&quot;\ #,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00;[Red]\-&quot;S/&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,7 +751,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,7 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -775,11 +779,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -799,12 +803,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -813,16 +821,6 @@
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -956,13 +954,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -991,15 +999,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1028,7 +1036,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;S/&quot;\ #,##0.00;[Red]\-&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00;[Red]\-&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1062,7 +1070,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,20 +1369,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0179C281-568B-4A25-AB38-862A24798D51}" name="VentasH2" displayName="VentasH2" ref="E4:G13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="E4:G13" xr:uid="{0179C281-568B-4A25-AB38-862A24798D51}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0179C281-568B-4A25-AB38-862A24798D51}" name="VentasH2" displayName="VentasH2" ref="E4:G14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E4:G14" xr:uid="{0179C281-568B-4A25-AB38-862A24798D51}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B005F291-4EC6-493F-BBC5-933DBE42F767}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{59EFE6B3-66BC-41B9-BE82-FE0DE5E8C38D}" name="Producto" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7EF89646-373C-448D-9CC2-36CB79B8A962}" name="Ventas Jul-Dic" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B005F291-4EC6-493F-BBC5-933DBE42F767}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{59EFE6B3-66BC-41B9-BE82-FE0DE5E8C38D}" name="Producto" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7EF89646-373C-448D-9CC2-36CB79B8A962}" name="Ventas Jul-Dic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE8D7D31-C30D-43BE-BAD7-9DEAD19F1A29}" name="BD_Empleados" displayName="BD_Empleados" ref="F71:I76" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="F71:I76" xr:uid="{EE8D7D31-C30D-43BE-BAD7-9DEAD19F1A29}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE8D7D31-C30D-43BE-BAD7-9DEAD19F1A29}" name="BD_Empleados" displayName="BD_Empleados" ref="F51:I56" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="F51:I56" xr:uid="{EE8D7D31-C30D-43BE-BAD7-9DEAD19F1A29}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B312140B-2412-4F89-AA44-6226BFD21660}" name="ID Empleado" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{E6A95FEA-1F88-4A5F-8ED0-3D3455A92AE1}" name="Nombre" dataDxfId="43"/>
@@ -1415,58 +1423,58 @@
   <autoFilter ref="H5:I15" xr:uid="{A119EFC8-A98E-400B-982A-DB9524720797}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{518320FC-EDB1-43AC-A24C-801927398A00}" name="Producto"/>
-    <tableColumn id="2" xr3:uid="{707D77FB-0ABF-40B0-A8F4-04173326D7E6}" name="Precio" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{707D77FB-0ABF-40B0-A8F4-04173326D7E6}" name="Precio" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D7E9559-D1B6-4DB7-BA9A-02D1A58D9FC3}" name="Periodo1" displayName="Periodo1" ref="A4:D15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D7E9559-D1B6-4DB7-BA9A-02D1A58D9FC3}" name="Periodo1" displayName="Periodo1" ref="A4:D15" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A4:D15" xr:uid="{2D7E9559-D1B6-4DB7-BA9A-02D1A58D9FC3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C2625C0-42FC-4222-A581-D6355F640447}" name="Producto" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{EFD942DC-DAF3-4037-B790-1A4023E94B98}" name="Cantidad" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{65428C58-A20F-4797-B750-5AAE0C276CBB}" name="Precio" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{88CD8833-BE52-4D10-A3DC-6842F02CE7FF}" name="Total Ventas" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{5C2625C0-42FC-4222-A581-D6355F640447}" name="Producto" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{EFD942DC-DAF3-4037-B790-1A4023E94B98}" name="Cantidad" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{65428C58-A20F-4797-B750-5AAE0C276CBB}" name="Precio" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{88CD8833-BE52-4D10-A3DC-6842F02CE7FF}" name="Total Ventas" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D455C54E-38F6-43DF-8423-A5918D1BE0FE}" name="Periodo2" displayName="Periodo2" ref="F4:I12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D455C54E-38F6-43DF-8423-A5918D1BE0FE}" name="Periodo2" displayName="Periodo2" ref="F4:I12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="F4:I12" xr:uid="{D455C54E-38F6-43DF-8423-A5918D1BE0FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AC35E0C5-E314-4EC5-A191-CB43E69CD677}" name="Producto" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A900EC96-D20F-4B73-B5CB-820BE0C4CAEA}" name="Cantidad" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0938FAE0-CBF5-41F1-8D6E-A9707FE6B3D2}" name="Precio" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{865CABDA-24EC-48B2-8DE4-7F9B89765CBB}" name="Total Ventas" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{AC35E0C5-E314-4EC5-A191-CB43E69CD677}" name="Producto" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A900EC96-D20F-4B73-B5CB-820BE0C4CAEA}" name="Cantidad" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0938FAE0-CBF5-41F1-8D6E-A9707FE6B3D2}" name="Precio" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{865CABDA-24EC-48B2-8DE4-7F9B89765CBB}" name="Total Ventas" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BEB9EF63-AF22-44B3-859E-850E90991987}" name="Periodo3" displayName="Periodo3" ref="K4:N12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BEB9EF63-AF22-44B3-859E-850E90991987}" name="Periodo3" displayName="Periodo3" ref="K4:N12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="K4:N12" xr:uid="{BEB9EF63-AF22-44B3-859E-850E90991987}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE3AD72F-2431-41D3-9509-DE4725DF9931}" name="Producto" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3F9CE63E-9173-4372-85CD-EBDD97E2AC6F}" name="Cantidad" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{876C6344-D576-49CC-B8AE-505471FD2E6B}" name="Precio" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C612B664-C042-4FCB-A563-080A881C84BC}" name="Total Ventas" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{AE3AD72F-2431-41D3-9509-DE4725DF9931}" name="Producto" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3F9CE63E-9173-4372-85CD-EBDD97E2AC6F}" name="Cantidad" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{876C6344-D576-49CC-B8AE-505471FD2E6B}" name="Precio" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C612B664-C042-4FCB-A563-080A881C84BC}" name="Total Ventas" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{13A12549-7D60-4B06-85B0-E32F01F968C2}" name="VentasH1" displayName="VentasH1" ref="A4:C13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A4:C13" xr:uid="{13A12549-7D60-4B06-85B0-E32F01F968C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{13A12549-7D60-4B06-85B0-E32F01F968C2}" name="VentasH1" displayName="VentasH1" ref="A4:C14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A4:C14" xr:uid="{13A12549-7D60-4B06-85B0-E32F01F968C2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6EF42944-3E3A-4EBC-B3C2-B0BDAD08B353}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{730F0EC0-7F8E-472D-B467-9A9F5E5D0D6B}" name="Producto" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{83ECBBE5-2E42-40B9-9BE9-CD5F50E5621C}" name="Ventas Ene-Jun" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6EF42944-3E3A-4EBC-B3C2-B0BDAD08B353}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{730F0EC0-7F8E-472D-B467-9A9F5E5D0D6B}" name="Producto" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{83ECBBE5-2E42-40B9-9BE9-CD5F50E5621C}" name="Ventas Ene-Jun" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1791,13 +1799,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D5A7C9-7080-4B43-91D7-1311FACA2135}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1811,23 +1819,23 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" s="13"/>
-      <c r="B2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1841,53 +1849,53 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1">
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1898,7 +1906,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1909,7 +1917,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1920,7 +1928,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1931,7 +1939,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1942,7 +1950,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1967,46 +1975,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5354A088-B584-4E1A-90C5-C9E8E5B007B7}">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="23.45">
       <c r="B2" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2015,12 +2026,12 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7">
         <v>5000</v>
@@ -2030,24 +2041,34 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7">
         <v>6000</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="I5" s="7" t="str" cm="1">
+        <f t="array" ref="I5:L15">_xlfn.IFNA(_xlfn.HSTACK(VentasH1[#All],VentasH2[[#All],[Ventas Jul-Dic]]),"-")</f>
+        <v>ID</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Producto</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <v>Ventas Ene-Jun</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <v>Ventas Jul-Dic</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C6" s="7">
         <v>3500</v>
@@ -2057,24 +2078,33 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7">
         <v>4000</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Manzana</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="7">
+        <v>6000</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7">
         <v>4200</v>
@@ -2084,24 +2114,33 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7">
         <v>4800</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Plátano</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4000</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C8" s="7">
         <v>2800</v>
@@ -2111,24 +2150,33 @@
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7">
         <v>3200</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Naranja</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4200</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4800</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C9" s="7">
         <v>3000</v>
@@ -2138,24 +2186,33 @@
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G9" s="7">
         <v>3500</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="I9" s="7">
+        <v>4</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Fresa</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2800</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3200</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7">
         <v>4800</v>
@@ -2165,24 +2222,33 @@
         <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7">
         <v>8000</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Piña</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3500</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7">
         <v>3600</v>
@@ -2192,24 +2258,33 @@
         <v>7</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7">
         <v>250</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="I11" s="7">
+        <v>6</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Kiwi</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4800</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8000</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C12" s="7">
         <v>4700</v>
@@ -2219,24 +2294,33 @@
         <v>8</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G12" s="7">
         <v>6000</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Melon</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3600</v>
+      </c>
+      <c r="L12" s="7">
+        <v>250</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2244,32 +2328,75 @@
         <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="7">
-        <v>10000</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>8</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Limon</v>
+      </c>
+      <c r="K13">
+        <v>4700</v>
+      </c>
+      <c r="L13">
+        <v>6000</v>
+      </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:14" ht="15">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>9</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Sandia</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="str">
+        <v>kiwi</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2287,37 +2414,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E942A-03A4-4C26-BEBC-A565B14B6454}">
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:19" ht="23.45">
       <c r="B2" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="G4" t="str" cm="1">
+        <f t="array" ref="G4:S7">TRANSPOSE(B4:E16)</f>
+        <v>Mes</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Enero</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Febrero</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Marzo</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Abril</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Mayo</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Junio</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Julio</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Agosto</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Setiembre</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Octubre</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Noviembre</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Diciembre</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C5" s="9">
         <v>15000</v>
@@ -2328,10 +2497,49 @@
       <c r="E5" s="9">
         <v>3254.7547242796063</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <v>Producto A</v>
+      </c>
+      <c r="H5">
+        <v>15000</v>
+      </c>
+      <c r="I5">
+        <v>40188.218609108902</v>
+      </c>
+      <c r="J5">
+        <v>4911.3706160928632</v>
+      </c>
+      <c r="K5">
+        <v>29423.701771965803</v>
+      </c>
+      <c r="L5">
+        <v>12263.104482015384</v>
+      </c>
+      <c r="M5">
+        <v>48394.47630826581</v>
+      </c>
+      <c r="N5">
+        <v>9101.5346474692487</v>
+      </c>
+      <c r="O5">
+        <v>16439.206202703092</v>
+      </c>
+      <c r="P5">
+        <v>47481.795415914501</v>
+      </c>
+      <c r="Q5">
+        <v>33329.539869217486</v>
+      </c>
+      <c r="R5">
+        <v>27455.886259313695</v>
+      </c>
+      <c r="S5">
+        <v>965.43022761974134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C6" s="9">
         <v>40188.218609108902</v>
@@ -2342,10 +2550,49 @@
       <c r="E6" s="9">
         <v>22565.531660147171</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <v>Producto B</v>
+      </c>
+      <c r="H6">
+        <v>17347.777773338043</v>
+      </c>
+      <c r="I6">
+        <v>4254.1381945055764</v>
+      </c>
+      <c r="J6">
+        <v>1969.3386794374892</v>
+      </c>
+      <c r="K6">
+        <v>27072.113677123896</v>
+      </c>
+      <c r="L6">
+        <v>26813.743170481706</v>
+      </c>
+      <c r="M6">
+        <v>16430.814122009586</v>
+      </c>
+      <c r="N6">
+        <v>29323.758474069262</v>
+      </c>
+      <c r="O6">
+        <v>44488.695344360021</v>
+      </c>
+      <c r="P6">
+        <v>25737.52103439506</v>
+      </c>
+      <c r="Q6">
+        <v>7075.4772302189958</v>
+      </c>
+      <c r="R6">
+        <v>20762.732321215248</v>
+      </c>
+      <c r="S6">
+        <v>36367.324826534707</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C7" s="9">
         <v>4911.3706160928632</v>
@@ -2356,10 +2603,49 @@
       <c r="E7" s="9">
         <v>13487.335130435116</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <v>Producto C</v>
+      </c>
+      <c r="H7">
+        <v>3254.7547242796063</v>
+      </c>
+      <c r="I7">
+        <v>22565.531660147171</v>
+      </c>
+      <c r="J7">
+        <v>13487.335130435116</v>
+      </c>
+      <c r="K7">
+        <v>9464.5400918942833</v>
+      </c>
+      <c r="L7">
+        <v>1449.1574457691677</v>
+      </c>
+      <c r="M7">
+        <v>31217.415652494623</v>
+      </c>
+      <c r="N7">
+        <v>15751.64581544057</v>
+      </c>
+      <c r="O7">
+        <v>40399.731906627203</v>
+      </c>
+      <c r="P7">
+        <v>21497.568552696626</v>
+      </c>
+      <c r="Q7">
+        <v>7732.6597635734142</v>
+      </c>
+      <c r="R7">
+        <v>38520.166275686446</v>
+      </c>
+      <c r="S7">
+        <v>25451.921913634316</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C8" s="9">
         <v>29423.701771965803</v>
@@ -2371,9 +2657,9 @@
         <v>9464.5400918942833</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C9" s="9">
         <v>12263.104482015384</v>
@@ -2385,9 +2671,9 @@
         <v>1449.1574457691677</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C10" s="9">
         <v>48394.47630826581</v>
@@ -2399,9 +2685,9 @@
         <v>31217.415652494623</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C11" s="9">
         <v>9101.5346474692487</v>
@@ -2413,9 +2699,9 @@
         <v>15751.64581544057</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9">
         <v>16439.206202703092</v>
@@ -2439,9 +2725,9 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C13" s="9">
         <v>47481.795415914501</v>
@@ -2465,9 +2751,9 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C14" s="9">
         <v>33329.539869217486</v>
@@ -2491,9 +2777,9 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C15" s="9">
         <v>27455.886259313695</v>
@@ -2505,9 +2791,9 @@
         <v>38520.166275686446</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C16" s="9">
         <v>965.43022761974134</v>
@@ -2527,93 +2813,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E74BA6E-3339-42BE-825A-17768286B1C6}">
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView topLeftCell="C32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="14" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="14" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:4" ht="18">
       <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4">
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4">
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26">
       <c r="C17" s="4"/>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2622,15 +2910,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26">
       <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="C19" s="4"/>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2639,101 +2927,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26">
       <c r="C20" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R24">
         <f>MATCH(X32,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="7">
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="16">
+        <f>VLOOKUP($B27,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="16">
+        <f>VLOOKUP($B27,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="S27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="W27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="X27" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="7">
         <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="16">
+        <f>VLOOKUP(B28,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="16">
+        <f>VLOOKUP($B28,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="16">
         <v>2.5</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R28" s="15">
         <v>2.5</v>
@@ -2748,36 +3048,45 @@
         <v>1</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y28" s="7">
         <v>2</v>
       </c>
-      <c r="Z28" s="16"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z28" s="16">
+        <f>VLOOKUP(W28,ListaPrecioTamaño[],MATCH(X28,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="7">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="16">
+        <f>VLOOKUP(B29,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="16">
+        <f>VLOOKUP($B29,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I29" s="16">
         <v>3</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R29" s="15">
         <v>3</v>
@@ -2792,36 +3101,45 @@
         <v>2</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y29" s="7">
         <v>1</v>
       </c>
-      <c r="Z29" s="16"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z29" s="16">
+        <f>VLOOKUP(W29,ListaPrecioTamaño[],MATCH(X29,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y29</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="7">
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="16">
+        <f>VLOOKUP(B30,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="16">
+        <f>VLOOKUP($B30,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I30" s="16">
         <v>3</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R30" s="15">
         <v>3</v>
@@ -2836,36 +3154,45 @@
         <v>3</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y30" s="7">
         <v>1</v>
       </c>
-      <c r="Z30" s="16"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z30" s="16">
+        <f>VLOOKUP(W30,ListaPrecioTamaño[],MATCH(X30,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y30</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="7">
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="16">
+        <f>VLOOKUP(B31,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="16">
+        <f>VLOOKUP($B31,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I31" s="16">
         <v>2.5</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R31" s="15">
         <v>2.5</v>
@@ -2880,36 +3207,45 @@
         <v>4</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y31" s="7">
         <v>4</v>
       </c>
-      <c r="Z31" s="16"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z31" s="16">
+        <f>VLOOKUP(W31,ListaPrecioTamaño[],MATCH(X31,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y31</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="7">
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="16">
+        <f>VLOOKUP(B32,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="16">
+        <f>VLOOKUP($B32,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I32" s="16">
         <v>3</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R32" s="15">
         <v>3</v>
@@ -2924,36 +3260,45 @@
         <v>5</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y32" s="7">
         <v>1</v>
       </c>
-      <c r="Z32" s="16"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z32" s="16">
+        <f>VLOOKUP(W32,ListaPrecioTamaño[],MATCH(X32,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y32</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="7">
         <v>7</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="16">
+        <f>VLOOKUP(B33,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E33" s="16">
+        <f>VLOOKUP($B33,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I33" s="16">
         <v>3</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R33" s="15">
         <v>3</v>
@@ -2968,36 +3313,45 @@
         <v>6</v>
       </c>
       <c r="W33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X33" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="Y33" s="7">
         <v>3</v>
       </c>
-      <c r="Z33" s="16"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z33" s="16">
+        <f>VLOOKUP(W33,ListaPrecioTamaño[],MATCH(X33,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y33</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="7">
         <v>8</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="16">
+        <f>VLOOKUP(B34,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="16">
+        <f>VLOOKUP($B34,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I34" s="16">
         <v>2.5</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R34" s="15">
         <v>2.5</v>
@@ -3012,36 +3366,45 @@
         <v>7</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y34" s="7">
         <v>2</v>
       </c>
-      <c r="Z34" s="16"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z34" s="16">
+        <f>VLOOKUP(W34,ListaPrecioTamaño[],MATCH(X34,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="7">
         <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="16">
+        <f>VLOOKUP(B35,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="16">
+        <f>VLOOKUP($B35,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I35" s="16">
         <v>3</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R35" s="15">
         <v>3</v>
@@ -3056,36 +3419,45 @@
         <v>8</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y35" s="7">
         <v>2</v>
       </c>
-      <c r="Z35" s="16"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z35" s="16">
+        <f>VLOOKUP(W35,ListaPrecioTamaño[],MATCH(X35,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y35</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="7">
         <v>10</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="16">
+        <f>VLOOKUP(B36,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="16">
+        <f>VLOOKUP($B36,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I36" s="16">
         <v>3</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R36" s="15">
         <v>3</v>
@@ -3100,36 +3472,45 @@
         <v>9</v>
       </c>
       <c r="W36" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y36" s="7">
         <v>1</v>
       </c>
-      <c r="Z36" s="16"/>
-    </row>
-    <row r="37" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z36" s="16">
+        <f>VLOOKUP(W36,ListaPrecioTamaño[],MATCH(X36,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y36</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="28.9">
       <c r="A37" s="7">
         <v>11</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="16">
+        <f>VLOOKUP(B37,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E37" s="16">
+        <f>VLOOKUP($B37,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I37" s="16">
         <v>2.5</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R37" s="15">
         <v>2.5</v>
@@ -3144,504 +3525,627 @@
         <v>10</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y37" s="7">
         <v>1</v>
       </c>
-      <c r="Z37" s="16"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z37" s="16">
+        <f>VLOOKUP(W37,ListaPrecioTamaño[],MATCH(X37,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y37</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="7">
         <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="D38" s="16">
+        <f>VLOOKUP(B38,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="16">
+        <f>VLOOKUP($B38,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="V38" s="7">
         <v>11</v>
       </c>
       <c r="W38" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y38" s="7">
         <v>2</v>
       </c>
-      <c r="Z38" s="16"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z38" s="16">
+        <f>VLOOKUP(W38,ListaPrecioTamaño[],MATCH(X38,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="7">
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="D39" s="16">
+        <f>VLOOKUP(B39,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="16">
+        <f>VLOOKUP($B39,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="V39" s="7">
         <v>12</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y39" s="7">
         <v>1</v>
       </c>
-      <c r="Z39" s="16"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z39" s="16">
+        <f>VLOOKUP(W39,ListaPrecioTamaño[],MATCH(X39,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="7">
         <v>14</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="D40" s="16">
+        <f>VLOOKUP(B40,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="16">
+        <f>VLOOKUP($B40,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="V40" s="7">
         <v>13</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y40" s="7">
         <v>1</v>
       </c>
-      <c r="Z40" s="16"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z40" s="16">
+        <f>VLOOKUP(W40,ListaPrecioTamaño[],MATCH(X40,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y40</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="12.6" customHeight="1">
       <c r="A41" s="7">
         <v>15</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" s="7">
         <v>2</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="D41" s="16">
+        <f>VLOOKUP(B41,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E41" s="16">
+        <f>VLOOKUP($B41,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="V41" s="7">
         <v>14</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y41" s="7">
         <v>3</v>
       </c>
-      <c r="Z41" s="16"/>
-    </row>
-    <row r="42" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z41" s="16">
+        <f>VLOOKUP(W41,ListaPrecioTamaño[],MATCH(X41,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y41</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="28.9">
       <c r="A42" s="7">
         <v>16</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="D42" s="16">
+        <f>VLOOKUP(B42,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E42" s="16">
+        <f>VLOOKUP($B42,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="V42" s="7">
         <v>15</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y42" s="7">
         <v>2</v>
       </c>
-      <c r="Z42" s="16"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z42" s="16">
+        <f>VLOOKUP(W42,ListaPrecioTamaño[],MATCH(X42,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y42</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="7">
         <v>17</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="16">
+        <f>VLOOKUP(B43,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="16">
+        <f>VLOOKUP($B43,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="V43" s="7">
         <v>16</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y43" s="7">
         <v>1</v>
       </c>
-      <c r="Z43" s="16"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z43" s="16">
+        <f>VLOOKUP(W43,ListaPrecioTamaño[],MATCH(X43,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y43</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="7">
         <v>18</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="16">
+        <f>VLOOKUP(B44,Precios[],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="16">
+        <f>VLOOKUP($B44,Precios[#All],2,FALSE)</f>
+        <v>2.5</v>
+      </c>
       <c r="V44" s="7">
         <v>17</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y44" s="7">
         <v>2</v>
       </c>
-      <c r="Z44" s="16"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z44" s="16">
+        <f>VLOOKUP(W44,ListaPrecioTamaño[],MATCH(X44,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="7">
         <v>19</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="16">
+        <f>VLOOKUP(B45,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="16">
+        <f>VLOOKUP($B45,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="V45" s="7">
         <v>18</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y45" s="7">
         <v>3</v>
       </c>
-      <c r="Z45" s="16"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z45" s="16">
+        <f>VLOOKUP(W45,ListaPrecioTamaño[],MATCH(X45,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y45</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="7">
         <v>20</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="16">
+        <f>VLOOKUP(B46,Precios[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E46" s="16">
+        <f>VLOOKUP($B46,Precios[#All],2,FALSE)</f>
+        <v>3</v>
+      </c>
       <c r="V46" s="7">
         <v>19</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y46" s="7">
         <v>2</v>
       </c>
-      <c r="Z46" s="16"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z46" s="16">
+        <f>VLOOKUP(W46,ListaPrecioTamaño[],MATCH(X46,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y46</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="V47" s="7">
         <v>20</v>
       </c>
       <c r="W47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X47" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Y47" s="7">
         <v>1</v>
       </c>
-      <c r="Z47" s="16"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="Z47" s="16">
+        <f>VLOOKUP(W47,ListaPrecioTamaño[],MATCH(X47,ListaPrecioTamaño[[#Headers],[Mediano]:[Jumbo]],0)+1,FALSE)*Y47</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="L51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="9">
+        <v>75000</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="Q51" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP($A52,BD_Empleados[#All],B$50,0)</f>
+        <v>Juan Pérez</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP($A52,BD_Empleados[],4,0)</f>
+        <v>5000</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP($A52,BD_Empleados[],3,0)</f>
+        <v>Ventas</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="9">
+        <v>5000</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="L52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="10">
+        <f>VLOOKUP(M51,O52:Q55,3,TRUE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <v>14999.99</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15" thickBot="1">
+      <c r="A53" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP($A53,BD_Empleados[#All],B$50,0)</f>
+        <v>Luis Torres</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP($A53,BD_Empleados[],4,0)</f>
+        <v>2750</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP($A53,BD_Empleados[],3,0)</f>
+        <v>Finanzas</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1002</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J71" s="12"/>
-      <c r="L71" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="9">
-        <v>75000</v>
-      </c>
-      <c r="O71" s="4" t="s">
+      <c r="H53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="L53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="17">
+        <f>M51*M52</f>
+        <v>3750</v>
+      </c>
+      <c r="O53" s="9">
+        <v>15000</v>
+      </c>
+      <c r="P53" s="9">
+        <v>34999.99</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" thickTop="1">
+      <c r="A54" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP($A54,BD_Empleados[#All],B$50,0)</f>
+        <v>Carlos Ruiz</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP($A54,BD_Empleados[],4,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP($A54,BD_Empleados[],3,0)</f>
+        <v>IT</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1003</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="9">
+        <v>3800</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="O54" s="9">
+        <v>35000</v>
+      </c>
+      <c r="P54" s="9">
+        <v>99999.99</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="F55" s="7">
+        <v>1004</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="9">
+        <v>4200</v>
+      </c>
+      <c r="J55" s="12"/>
+      <c r="O55" s="9">
+        <v>100000</v>
+      </c>
+      <c r="P55" s="9">
+        <v>999999999999</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="F56" s="7">
+        <v>1005</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="H56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q71" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>1001</v>
-      </c>
-      <c r="B72" t="str">
-        <f>VLOOKUP($A72,BD_Empleados[#All],B$70,0)</f>
-        <v>Juan Pérez</v>
-      </c>
-      <c r="F72" s="7">
-        <v>1001</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J72" s="12"/>
-      <c r="L72" t="s">
-        <v>45</v>
-      </c>
-      <c r="M72" s="10"/>
-      <c r="O72" s="9">
-        <v>0</v>
-      </c>
-      <c r="P72" s="9">
-        <v>14999.99</v>
-      </c>
-      <c r="Q72" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B73" t="str">
-        <f>VLOOKUP($A73,BD_Empleados[#All],B$70,0)</f>
-        <v>Luis Torres</v>
-      </c>
-      <c r="F73" s="7">
-        <v>1002</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" s="9">
-        <v>1500</v>
-      </c>
-      <c r="J73" s="12"/>
-      <c r="L73" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M73" s="17">
-        <f>M71*M72</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="9">
-        <v>15000</v>
-      </c>
-      <c r="P73" s="9">
-        <v>34999.99</v>
-      </c>
-      <c r="Q73" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B74" t="str">
-        <f>VLOOKUP($A74,BD_Empleados[#All],B$70,0)</f>
-        <v>Carlos Ruiz</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1003</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="9">
-        <v>3800</v>
-      </c>
-      <c r="J74" s="12"/>
-      <c r="O74" s="9">
-        <v>35000</v>
-      </c>
-      <c r="P74" s="9">
-        <v>99999.99</v>
-      </c>
-      <c r="Q74" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="F75" s="7">
-        <v>1004</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I75" s="9">
-        <v>4200</v>
-      </c>
-      <c r="J75" s="12"/>
-      <c r="O75" s="9">
-        <v>100000</v>
-      </c>
-      <c r="P75" s="9">
-        <v>999999999999</v>
-      </c>
-      <c r="Q75" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="F76" s="7">
-        <v>1005</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="9">
+      <c r="I56" s="9">
         <v>2750</v>
       </c>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="12"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="12"/>
-    </row>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="12"/>
+    </row>
+    <row r="69" spans="10:10" ht="15"/>
+    <row r="71" spans="10:10" ht="15"/>
+    <row r="72" spans="10:10" ht="15"/>
+    <row r="73" spans="10:10" ht="15"/>
+    <row r="74" spans="10:10" ht="15"/>
+    <row r="75" spans="10:10" ht="15"/>
+    <row r="76" spans="10:10" ht="15"/>
+    <row r="77" spans="10:10" ht="15"/>
+    <row r="78" spans="10:10" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3661,111 +4165,117 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18">
       <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>HLOOKUP(D4,B9:G13,2,FALSE)</f>
+        <v>María López</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.9">
       <c r="C6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f>HLOOKUP(D4,B9:G13,3,0)</f>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7">
         <v>2500</v>
@@ -3783,12 +4293,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="19">
         <v>42064</v>
@@ -3820,372 +4330,435 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA78EEA-3AB4-4F74-9374-7857BEDDAAEF}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="23.45">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="31">
+        <f>_xlfn.XLOOKUP(B6,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C6</f>
+        <v>5</v>
+      </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="16">
         <v>2.5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="31">
+        <f>_xlfn.XLOOKUP(B7,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C7</f>
+        <v>3</v>
+      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H7" s="16">
         <v>3</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="31">
+        <f>_xlfn.XLOOKUP(B8,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C8</f>
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H8" s="16">
         <v>3</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="31">
+        <f>_xlfn.XLOOKUP(B9,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C9</f>
+        <v>10</v>
+      </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="16">
         <v>2.5</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="31">
+        <f>_xlfn.XLOOKUP(B10,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C10</f>
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H10" s="16">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="31">
+        <f>_xlfn.XLOOKUP(B11,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C11</f>
+        <v>9</v>
+      </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H11" s="16">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="31">
+        <f>_xlfn.XLOOKUP(B12,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C12</f>
+        <v>5</v>
+      </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="16">
         <v>2.5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="31">
+        <f>_xlfn.XLOOKUP(B13,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C13</f>
+        <v>6</v>
+      </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H13" s="16">
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="31">
+        <f>_xlfn.XLOOKUP(B14,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C14</f>
+        <v>3</v>
+      </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
         <v>3</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25">
       <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="31">
+        <f>_xlfn.XLOOKUP(B15,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C15</f>
+        <v>2.5</v>
+      </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H15" s="16">
         <v>2.5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="7">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="31">
+        <f>_xlfn.XLOOKUP(B16,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="31">
+        <f>_xlfn.XLOOKUP(B17,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="7">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="31">
+        <f>_xlfn.XLOOKUP(B18,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25">
       <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="31">
+        <f>_xlfn.XLOOKUP(B19,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C19</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25">
       <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="31">
+        <f>_xlfn.XLOOKUP(B20,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="31">
+        <f>_xlfn.XLOOKUP(B21,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="31">
+        <f>_xlfn.XLOOKUP(B22,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="7">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="31">
+        <f>_xlfn.XLOOKUP(B23,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C23</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="7">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="31">
+        <f>_xlfn.XLOOKUP(B24,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="7">
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="31">
+        <f>_xlfn.XLOOKUP(B25,ListaPrecio2[Producto2],ListaPrecio2[Precio],"No Aplica",0,1)*C25</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4198,63 +4771,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C218998B-FF1C-4028-85D3-67153E58685D}">
-  <dimension ref="B1:M13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="23.45">
       <c r="B1" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4:A13">_xlfn.SEQUENCE(10)</f>
+        <v>1</v>
+      </c>
       <c r="B4" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XMATCH(D3,B4:B13,0,-1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10:M10">TRANSPOSE(B4:B13)</f>
@@ -4288,24 +4887,73 @@
         <v>Café con Leche</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <f>MATCH(D10,$B$4:$B$13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:M11" si="0">MATCH(E10,$B$4:$B$13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4316,43 +4964,43 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="B2" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -4361,20 +5009,23 @@
         <f t="shared" ref="D5:D24" si="0">VLOOKUP(B5,Empleados,2,FALSE)</f>
         <v>2.5</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <f>INDEX(Precios9[],MATCH(B5,Precios9[Producto],0),2)*C5</f>
+        <v>5</v>
+      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4383,20 +5034,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <f>INDEX(Precios9[],MATCH(B6,Precios9[Producto],0),2)*C6</f>
+        <v>3</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" s="16">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4405,20 +5059,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <f>INDEX(Precios9[],MATCH(B7,Precios9[Producto],0),2)*C7</f>
+        <v>3</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I7" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -4427,20 +5084,23 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16">
+        <f>INDEX(Precios9[],MATCH(B8,Precios9[Producto],0),2)*C8</f>
+        <v>10</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I8" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -4449,20 +5109,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16">
+        <f>INDEX(Precios9[],MATCH(B9,Precios9[Producto],0),2)*C9</f>
+        <v>3</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I9" s="16">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -4471,20 +5134,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <f>INDEX(Precios9[],MATCH(B10,Precios9[Producto],0),2)*C10</f>
+        <v>9</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I10" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -4493,20 +5159,23 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <f>INDEX(Precios9[],MATCH(B11,Precios9[Producto],0),2)*C11</f>
+        <v>5</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4515,20 +5184,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <f>INDEX(Precios9[],MATCH(B12,Precios9[Producto],0),2)*C12</f>
+        <v>6</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I12" s="16">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -4537,20 +5209,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <f>INDEX(Precios9[],MATCH(B13,Precios9[Producto],0),2)*C13</f>
+        <v>3</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I13" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.9">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -4559,20 +5234,23 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16">
+        <f>INDEX(Precios9[],MATCH(B14,Precios9[Producto],0),2)*C14</f>
+        <v>2.5</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I14" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -4581,20 +5259,23 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16">
+        <f>INDEX(Precios9[],MATCH(B15,Precios9[Producto],0),2)*C15</f>
+        <v>5</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I15" s="16">
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4603,14 +5284,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="16">
+        <f>INDEX(Precios9[],MATCH(B16,Precios9[Producto],0),2)*C16</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -4619,14 +5303,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="16">
+        <f>INDEX(Precios9[],MATCH(B17,Precios9[Producto],0),2)*C17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.9">
       <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -4635,14 +5322,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="16">
+        <f>INDEX(Precios9[],MATCH(B18,Precios9[Producto],0),2)*C18</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.9">
       <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -4651,14 +5341,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="16">
+        <f>INDEX(Precios9[],MATCH(B19,Precios9[Producto],0),2)*C19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -4667,14 +5360,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="16">
+        <f>INDEX(Precios9[],MATCH(B20,Precios9[Producto],0),2)*C20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -4683,14 +5379,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="16">
+        <f>INDEX(Precios9[],MATCH(B21,Precios9[Producto],0),2)*C21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -4699,14 +5398,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="16">
+        <f>INDEX(Precios9[],MATCH(B22,Precios9[Producto],0),2)*C22</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -4715,14 +5417,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="16">
+        <f>INDEX(Precios9[],MATCH(B23,Precios9[Producto],0),2)*C23</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="7">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -4731,7 +5436,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16">
+        <f>INDEX(Precios9[],MATCH(B24,Precios9[Producto],0),2)*C24</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4743,59 +5451,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C158E5-B75B-471B-9675-5907CF74B1C1}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="23.45">
       <c r="B2" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -4813,16 +5521,23 @@
         <f>F5*G5</f>
         <v>711.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="str" cm="1">
+        <f t="array" ref="J5:K15">_xlfn.GROUPBY(A4:A29,F4:F29,_xleta.SUM,3)</f>
+        <v>Producto</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Cantidad</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -4840,16 +5555,22 @@
         <f t="shared" ref="H6:H29" si="0">F6*G6</f>
         <v>614.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>Blusa</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -4867,16 +5588,22 @@
         <f t="shared" si="0"/>
         <v>190.79999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>Camiseta</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -4894,16 +5621,22 @@
         <f t="shared" si="0"/>
         <v>600.92999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>Chaqueta</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -4921,16 +5654,22 @@
         <f t="shared" si="0"/>
         <v>161.39999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>Falda</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -4948,16 +5687,22 @@
         <f t="shared" si="0"/>
         <v>585.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <v>Jeans</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -4975,16 +5720,22 @@
         <f t="shared" si="0"/>
         <v>63.989999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <v>Pantalón</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -5002,16 +5753,22 @@
         <f t="shared" si="0"/>
         <v>376.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <v>Short</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5029,16 +5786,22 @@
         <f t="shared" si="0"/>
         <v>382.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <v>Sudadera</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5056,16 +5819,22 @@
         <f t="shared" si="0"/>
         <v>161.60999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <v>Vestido</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -5083,16 +5852,22 @@
         <f t="shared" si="0"/>
         <v>434.96999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <v>Total</v>
+      </c>
+      <c r="K15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5111,15 +5886,15 @@
         <v>84.18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5138,15 +5913,15 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5165,15 +5940,15 @@
         <v>350.36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -5193,15 +5968,15 @@
       </c>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -5221,15 +5996,15 @@
       </c>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -5249,15 +6024,15 @@
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -5277,15 +6052,15 @@
       </c>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -5305,15 +6080,15 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -5333,15 +6108,15 @@
       </c>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -5361,15 +6136,15 @@
       </c>
       <c r="K25" s="26"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5389,15 +6164,15 @@
       </c>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -5417,15 +6192,15 @@
       </c>
       <c r="K27" s="26"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -5445,15 +6220,15 @@
       </c>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -5470,6 +6245,12 @@
       <c r="H29">
         <f t="shared" si="0"/>
         <v>211.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="F30">
+        <f>SUM(F5:F29)</f>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5481,55 +6262,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC63848-29D8-44F1-8546-C7C5620E39AE}">
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="K8:O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="23.45">
       <c r="B2" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -5547,16 +6330,35 @@
         <f>F5*G5</f>
         <v>711.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J5" t="str" cm="1">
+        <f t="array" ref="J5:O17">_xlfn.PIVOTBY(A4:A29,B4:B29,H4:H29,_xleta.SUM,3,1)</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>Talla</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -5574,16 +6376,34 @@
         <f t="shared" ref="H6:H29" si="0">F6*G6</f>
         <v>614.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>L</v>
+      </c>
+      <c r="L6" t="str">
+        <v>M</v>
+      </c>
+      <c r="M6" t="str">
+        <v>S</v>
+      </c>
+      <c r="N6" t="str">
+        <v>XL</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5601,16 +6421,34 @@
         <f t="shared" si="0"/>
         <v>190.79999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>Producto</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Ventas</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -5628,24 +6466,37 @@
         <f t="shared" si="0"/>
         <v>600.92999999999995</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="J8" t="str">
+        <v>Blusa</v>
+      </c>
+      <c r="K8" s="34">
+        <v>184.23</v>
+      </c>
+      <c r="L8" s="34" t="str">
+        <v/>
+      </c>
+      <c r="M8" s="34">
+        <v>161.39999999999998</v>
+      </c>
+      <c r="N8" s="34">
+        <v>209.89999999999998</v>
+      </c>
+      <c r="O8" s="34">
+        <v>555.53</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -5663,24 +6514,37 @@
         <f t="shared" si="0"/>
         <v>161.39999999999998</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="J9" t="str">
+        <v>Camiseta</v>
+      </c>
+      <c r="K9" s="34">
+        <v>334.38</v>
+      </c>
+      <c r="L9" s="34">
+        <v>434.96999999999997</v>
+      </c>
+      <c r="M9" s="34">
+        <v>376.88</v>
+      </c>
+      <c r="N9" s="34">
+        <v>600.92999999999995</v>
+      </c>
+      <c r="O9" s="34">
+        <v>1747.1599999999999</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -5698,24 +6562,37 @@
         <f t="shared" si="0"/>
         <v>585.6</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="J10" t="str">
+        <v>Chaqueta</v>
+      </c>
+      <c r="K10" s="34">
+        <v>350.36</v>
+      </c>
+      <c r="L10" s="34">
+        <v>458.21999999999997</v>
+      </c>
+      <c r="M10" s="34">
+        <v>40.6</v>
+      </c>
+      <c r="N10" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O10" s="34">
+        <v>849.18000000000006</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -5733,24 +6610,37 @@
         <f t="shared" si="0"/>
         <v>63.989999999999995</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="J11" t="str">
+        <v>Falda</v>
+      </c>
+      <c r="K11" s="34">
+        <v>43.46</v>
+      </c>
+      <c r="L11" s="34" t="str">
+        <v/>
+      </c>
+      <c r="M11" s="34" t="str">
+        <v/>
+      </c>
+      <c r="N11" s="34">
+        <v>213.04</v>
+      </c>
+      <c r="O11" s="34">
+        <v>256.5</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -5768,24 +6658,37 @@
         <f t="shared" si="0"/>
         <v>376.88</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="J12" t="str">
+        <v>Jeans</v>
+      </c>
+      <c r="K12" s="34" t="str">
+        <v/>
+      </c>
+      <c r="L12" s="34">
+        <v>711.09</v>
+      </c>
+      <c r="M12" s="34" t="str">
+        <v/>
+      </c>
+      <c r="N12" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O12" s="34">
+        <v>711.09</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5803,24 +6706,37 @@
         <f t="shared" si="0"/>
         <v>382.55</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="J13" t="str">
+        <v>Pantalón</v>
+      </c>
+      <c r="K13" s="34" t="str">
+        <v/>
+      </c>
+      <c r="L13" s="34" t="str">
+        <v/>
+      </c>
+      <c r="M13" s="34">
+        <v>614.52</v>
+      </c>
+      <c r="N13" s="34">
+        <v>466.28999999999996</v>
+      </c>
+      <c r="O13" s="34">
+        <v>1080.81</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5838,24 +6754,37 @@
         <f t="shared" si="0"/>
         <v>161.60999999999999</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="J14" t="str">
+        <v>Short</v>
+      </c>
+      <c r="K14" s="34">
+        <v>161.60999999999999</v>
+      </c>
+      <c r="L14" s="34">
+        <v>977.45</v>
+      </c>
+      <c r="M14" s="34">
+        <v>84.18</v>
+      </c>
+      <c r="N14" s="34">
+        <v>585.6</v>
+      </c>
+      <c r="O14" s="34">
+        <v>1808.8400000000001</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -5873,24 +6802,37 @@
         <f t="shared" si="0"/>
         <v>434.96999999999997</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="J15" t="str">
+        <v>Sudadera</v>
+      </c>
+      <c r="K15" s="34">
+        <v>46.16</v>
+      </c>
+      <c r="L15" s="34">
+        <v>506.7</v>
+      </c>
+      <c r="M15" s="34" t="str">
+        <v/>
+      </c>
+      <c r="N15" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O15" s="34">
+        <v>552.86</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5908,24 +6850,37 @@
         <f t="shared" si="0"/>
         <v>84.18</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="J16" t="str">
+        <v>Vestido</v>
+      </c>
+      <c r="K16" s="34" t="str">
+        <v/>
+      </c>
+      <c r="L16" s="34">
+        <v>645.29999999999995</v>
+      </c>
+      <c r="M16" s="34" t="str">
+        <v/>
+      </c>
+      <c r="N16" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O16" s="34">
+        <v>645.29999999999995</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5943,24 +6898,37 @@
         <f t="shared" si="0"/>
         <v>40.6</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="J17" t="str">
+        <v>Total</v>
+      </c>
+      <c r="K17" s="34">
+        <v>1120.2</v>
+      </c>
+      <c r="L17" s="34">
+        <v>3733.7300000000005</v>
+      </c>
+      <c r="M17" s="34">
+        <v>1277.58</v>
+      </c>
+      <c r="N17" s="34">
+        <v>2075.7599999999998</v>
+      </c>
+      <c r="O17" s="34">
+        <v>8207.27</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5979,15 +6947,15 @@
         <v>350.36</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -6006,15 +6974,15 @@
         <v>213.04</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -6033,15 +7001,15 @@
         <v>46.16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -6061,15 +7029,15 @@
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -6089,15 +7057,15 @@
       </c>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -6117,15 +7085,15 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -6145,15 +7113,15 @@
       </c>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -6173,15 +7141,15 @@
       </c>
       <c r="K25" s="26"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -6201,15 +7169,15 @@
       </c>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -6229,15 +7197,15 @@
       </c>
       <c r="K27" s="26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -6257,15 +7225,15 @@
       </c>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -6284,7 +7252,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:18">
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -6294,7 +7262,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:18">
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -6304,7 +7272,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:18">
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
@@ -6314,7 +7282,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:18">
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -6324,7 +7292,7 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:18">
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -6341,66 +7309,68 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1BD0E-1FAD-4953-834B-7D6FEC4ACE7C}">
-  <dimension ref="A2:N15"/>
+  <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="23.45">
       <c r="B2" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7">
         <v>10</v>
@@ -6412,7 +7382,7 @@
         <v>5000</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7">
         <v>6</v>
@@ -6424,7 +7394,7 @@
         <v>4200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7">
         <v>9</v>
@@ -6436,9 +7406,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <v>7</v>
@@ -6450,7 +7420,7 @@
         <v>4900</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7">
         <v>10</v>
@@ -6462,7 +7432,7 @@
         <v>3000</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7">
         <v>7</v>
@@ -6474,9 +7444,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B7" s="7">
         <v>8</v>
@@ -6488,7 +7458,7 @@
         <v>2400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7">
         <v>4</v>
@@ -6500,7 +7470,7 @@
         <v>2000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7">
         <v>3</v>
@@ -6512,9 +7482,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7">
         <v>5</v>
@@ -6526,7 +7496,7 @@
         <v>1000</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7">
         <v>8</v>
@@ -6538,7 +7508,7 @@
         <v>3200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7">
         <v>5</v>
@@ -6550,9 +7520,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -6564,7 +7534,7 @@
         <v>600</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G9" s="7">
         <v>5</v>
@@ -6576,7 +7546,7 @@
         <v>500</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="L9" s="7">
         <v>4</v>
@@ -6588,9 +7558,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
@@ -6602,7 +7572,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7">
         <v>7</v>
@@ -6614,7 +7584,7 @@
         <v>1400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L10" s="7">
         <v>12</v>
@@ -6626,9 +7596,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B11" s="7">
         <v>15</v>
@@ -6640,7 +7610,7 @@
         <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7">
         <v>1000</v>
@@ -6653,7 +7623,7 @@
         <v>200000</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7">
         <v>10</v>
@@ -6665,9 +7635,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -6679,7 +7649,7 @@
         <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G12" s="7">
         <v>2000</v>
@@ -6692,7 +7662,7 @@
         <v>400000</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L12" s="7">
         <v>6</v>
@@ -6704,9 +7674,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B13" s="7">
         <v>6</v>
@@ -6726,9 +7696,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B14" s="7">
         <v>4</v>
@@ -6748,9 +7718,9 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7">
         <v>100</v>
@@ -6761,6 +7731,399 @@
       <c r="D15" s="7">
         <f>Periodo1[[#This Row],[Cantidad]]*Periodo1[[#This Row],[Precio]]</f>
         <v>50000000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17:I44">_xlfn.VSTACK(Periodo1[#All],Periodo3[],Periodo2[])</f>
+        <v>Producto</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Precio</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Total Ventas</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" t="str">
+        <v>Televisor</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>700</v>
+      </c>
+      <c r="I19">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" t="str">
+        <v>Audífonos</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" t="str">
+        <v>Teclado</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" t="str">
+        <v>Mouse</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" t="str">
+        <v>Impresora</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>180</v>
+      </c>
+      <c r="I26">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" t="str">
+        <v>Cámara Web</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" t="str">
+        <v>Automovil</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>500000</v>
+      </c>
+      <c r="I28">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>300</v>
+      </c>
+      <c r="I29">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" t="str">
+        <v>Consola de Videojuegos</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>400</v>
+      </c>
+      <c r="I30">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" t="str">
+        <v>Televisor</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>700</v>
+      </c>
+      <c r="I32">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>180</v>
+      </c>
+      <c r="I33">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" t="str">
+        <v>Audífonos</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" t="str">
+        <v>Cámara Web</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>120</v>
+      </c>
+      <c r="I35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" t="str">
+        <v>Impresora</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+      <c r="I36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>700</v>
+      </c>
+      <c r="I37">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>300</v>
+      </c>
+      <c r="I38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" t="str">
+        <v>Televisor</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>500</v>
+      </c>
+      <c r="I39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" t="str">
+        <v>Consola de Videojuegos</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>400</v>
+      </c>
+      <c r="I40">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" t="str">
+        <v>Parlante Bluetooth</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="G44">
+        <v>2000</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
+      </c>
+      <c r="I44">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
